--- a/datasheets/strips_fence.xlsx
+++ b/datasheets/strips_fence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Documents/SOPs/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>F</t>
   </si>
@@ -60,17 +60,68 @@
     <t>G8</t>
   </si>
   <si>
-    <t xml:space="preserve">Strips soils (from the fence row) to be extracted by hand. </t>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Crop</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Tech. Rep</t>
+  </si>
+  <si>
+    <t>Ext. Tube ID</t>
+  </si>
+  <si>
+    <t>F-A-1</t>
+  </si>
+  <si>
+    <t>F-A-2</t>
+  </si>
+  <si>
+    <t>F-B-1</t>
+  </si>
+  <si>
+    <t>F-B-2</t>
+  </si>
+  <si>
+    <t>F-C-1</t>
+  </si>
+  <si>
+    <t>F-C-2</t>
+  </si>
+  <si>
+    <t>~ 30g</t>
+  </si>
+  <si>
+    <t>Whirl pack</t>
+  </si>
+  <si>
+    <t>(ng/µl)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ~ (0.25 g)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,12 +186,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,18 +623,205 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>